--- a/output/result.xlsx
+++ b/output/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.amazon.de/Deo-Fenjal-Deodorants-Antitranspirants/s?keywords=Deo&amp;rh=n%3A64798031%2Cp_4%3AFenjal&amp;c=ts&amp;ts_id=64798031</t>
+          <t>https://www.amazon.de/fenjal-Classic-Antitranspirant-Zerst%C3%A4uber-Pumpspray/dp/B08MF8ZW2Q</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>https://www.amazon.de/Goodma-Mini-Aufbewahrungsboxen-transparentem-Scharnierdeckel-Bastelprojekte/dp/B0C147VZCB</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>not found</t>
+          <t>https://www.amazon.de/Trink-Gl%C3%A4ser-sp%C3%BClmaschinenfeste-Wasser-Gl%C3%A4ser-Trink-Becher-066312/dp/B0CSJYTKCY</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.amazon.de/Baymax-Selbstreinigende-Katzentoilette-%C3%9Cberwachung-Gesundheit/dp/B0CJRM99ZM</t>
+          <t>https://www.amazon.de/Baymax-selbstreinigende-Fassungsverm%C3%B6gen-Katzentoilette-Mehrkatzenhaushalt/dp/B0D1JSF5YJ</t>
         </is>
       </c>
     </row>
@@ -1672,1122 +1672,6 @@
       <c r="H32" t="inlineStr">
         <is>
           <t>https://www.amazon.de/MAM-Night-Silikon-0-6-Monate/dp/B000N3YPZ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>10147413</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>猫厕所 猫砂盆除臭凝胶 适配Baymax white</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Catlink Deodorizer for Baymax white</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Catlink Désodorisant pour Baymax blanc</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Catlink Geruchsneutralisierer für Baymax weiß</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Catlink Deodorizer for Baymax white</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/CATLINK-Baymax-Selbstreinigende-Katzentoilette-Geruchsneutral/dp/B0D1QPKNP3</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>10134567</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>大容量外出便携挂钩洗漱包化妆袋藏青色 藏青色</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Large capacity portable hanging toilet bag, makeup bag, navy blue, navy blue</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Tragbarer Kulturbeutel zum Aufhängen, große Kapazität, Make-up-Tasche, Marineblau, Marineblau</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Grote capaciteit draagbare hangende toilettas, make-up tas, marineblauw, marineblauw</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/Kulturbeutel-wasserdichte-Kosmetiktasche-Make-up-Organizer-Marineblau/dp/B07ZK8G4WG</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>10126452</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>珐宝 陶瓷碗 马卡龙色系套碗 - 6件套 - 12cm - 400ml</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Staub Ceramic Bowls – Macaron Colors – Set of 6 – 12 cm – 400 ml</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Staub Bols en céramique – Couleurs Macaron – Lot de 6 – 12 cm – 400 ml</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Staub Keramikschalen im Macaron-Stil – 6er-Set – 12 cm – 400 ml</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Staub Keramische kommen – macaronkleuren – 6-delig – 12 cm – 400 ml</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/STAUB-Sch%C3%BCsselset-M%C3%BCslisch%C3%BCsseln-Serviersch%C3%BCsseln-Dessertschalen/dp/B0CBSQ4WK5</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>10116334</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>珐宝（Staub） Cocotte经典珐琅铸铁锅 炖锅 - 双柄 - 20cm - 2.2L</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Classic Enamel Cast Iron Casserole – With Lid – 20 cm – 2.2 L</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Classique en Fonte Émaillée – Avec Couvercle – 20 cm – 2,2 L</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Gusseisen-Schmortopf mit Deckel – 20 cm – 2,2 L</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Staub Cocotte klassieke geëmailleerde gietijzeren braadpan – met deksel – 20 cm – 2,2 L</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/STAUB-Gusseisen-Br%C3%A4ter-Cocotte-Graphitgrau/dp/B000TSL570</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>10134570</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>冰板 清凉板 2块装 200g</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Cooling pads 2pcs 200g</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Kühlpads 2Stk 200g</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/ALERION%C2%AE-K%C3%BChlpads-Kinder-Erwachsene-2Stk/dp/B00ZGQALYI</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>10116354</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>珐宝 小号铸铁平底锅 铸铁煎锅 - 单柄 - 12cm</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Staub Small Cast Iron Frying Pan – Single Handle – 12 cm</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Staub Petite poêle en fonte – Poignée simple – 12 cm</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Staub Kleine Gusseisenpfanne – Bratpfanne mit Griff – 12 cm</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Staub Kleine gietijzeren koekenpan – enkele handgreep – 12 cm</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/STAUB-12-Minipfanne-Gusseisen-Schwarz/dp/B000P1Q3G4</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>10105231</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>珐宝 Cocotte经典珐琅铸铁锅 炖锅 - 双柄 - 24cm - 3.8L</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Classic Enamel Cast Iron Casserole – With Lid – 24 cm – 3.8 L</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Classique en Fonte Émaillée – Avec Couvercle – 24 cm – 3,8 L</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Gusseisen-Schmortopf mit Deckel – 24 cm – 3,8 L</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Staub Cocotte klassieke geëmailleerde gietijzeren braadpan – met deksel – 24 cm – 3,8 L</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/STAUB-Gusseisen-Br%C3%A4ter-Cocotte-Graphitgrau/dp/B000TSL56G</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>10135572</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>珐宝（Staub） 圆形铸铁烤盘 铸铁圆锅 - 双柄 - 26cm</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Staub Round Cast Iron Grill Pan – Double Handles – 26 cm</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Staub Poêle à griller ronde en fonte – Double poignée – 26 cm</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Staub Runde Gusseisen-Grillpfanne – mit zwei Griffen – 26 cm</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Staub Ronde gietijzeren grillpan – dubbele grepen – 26 cm</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/Staub-Grillpfanne-rund-Schwarz-Gusseisen/dp/B000X20SF2</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>10123855</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>珐宝（Staub） 圆形铸铁珐琅锅 炖锅 烤炉 烤盘 - 双柄 - 带盖 - 24cm - 2.5L</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Staub Round Cast Iron Enamel Pot – Casserole – With Lid – 24 cm – 2.5 L</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Staub Cocotte ronde en fonte émaillée avec couvercle, 24 cm, 2,5 L</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Staub Runder Gusseisen-Schmortopf mit Deckel – 24 cm – 2,5 L</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Staub Ronde geëmailleerde gietijzeren braadpan – met deksel – 24 cm – 2,5 L</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/Staub-Chistera-Induktionsgeeignet-Gusseisen-Einheiten/dp/B00MI7NOVK</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>10134643</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Dalli彩色衣物洗衣液3.12公斤</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Dalli Color Laundry Detergent 3.12kg</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Lessive couleur Dalli 3,12 kg</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Dalli Colorwaschmittel 3,12 kg</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Dalli Color Laundry Detergent 3.12kg</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/Sensitiv-Waschmittel-Waschpulver-Parf%C3%BCmstoffe-Mikroplastik/dp/B0CMR2K7ZY</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>10123622</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>珐宝（Staub） Cocotte经典珐琅铸铁锅 炖锅 - 双柄 - 26cm - 5.2L</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Classic Enamel Cast Iron Casserole – With Lid – 26 cm – 5.2 L</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Classique en Fonte Émaillée – Avec Couvercle – 26 cm – 5,2 L</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Gusseisen-Schmortopf mit Deckel – 26 cm – 5,2 L</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Staub Cocotte klassieke geëmailleerde gietijzeren braadpan – met deksel – 26 cm – 5,2 L</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>10106506</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>珐宝 圆形铸铁珐琅锅 炖锅 烤炉 烤盘 - 双柄 - 带盖 - 28cm - 3.7L</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Staub Round Cast Iron Enamel Pot – Casserole – With Lid – 28 cm – 3.7 L</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Staub Cocotte ronde en fonte émaillée avec couvercle, 28 cm, 3,7 L</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Staub Runder Gusseisen-Schmortopf mit Deckel – 28 cm – 3,7 L</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Staub Ronde geëmailleerde gietijzeren braadpan – met deksel – 28 cm – 3,7 L</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/Staub-Induktionsgeeignet-Gusseisen-Kirschrot-Einheiten/dp/B00MPRK69G</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>10135363</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>珐宝（Staub） Cocotte经典珐琅铸铁锅 炖锅 - 双柄 - 17cm - 1L</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Classic Enamel Cast Iron Casserole – With Lid – 17 cm – 1 L</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Classique en Fonte Émaillée – Avec Couvercle – 17 cm – 1 L</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Gusseisen-Schmortopf mit Deckel – 17 cm – 1 L</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Staub Cocotte klassieke geëmailleerde gietijzeren braadpan – met deksel – 17 cm – 1 L</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/STAUB-Cocotte-Cast-Iron-Graphitgrau/dp/B000TSN6ZO</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>10129275</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>珐宝 Cocotte经典珐琅铸铁锅 炖锅 - 双柄 - 22cm - 2.5L</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Classic Enamel Cast Iron Casserole – With Lid – 22 cm – 2.5 L</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Classique en Fonte Émaillée – Avec Couvercle – 22 cm – 2,5 L</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Staub Cocotte Gusseisen-Schmortopf mit Deckel – 22 cm – 2,5 L</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Staub Cocotte klassieke geëmailleerde gietijzeren braadpan – met deksel – 22 cm – 2,5 L</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/STAUB-Cocotte-Cast-Iron-Schwarz/dp/B000BPLCPG</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>10134658</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Ahava 玻尿酸精华 30毫升</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Ahava Hyaluronic Acid Serum 30 ml</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Ahava Sérum Acide Hyaluronique 30 ml</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Ahava Hyaluronsäure-Serum 30 ml</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Ahava Hyaluronzuur Serum 30 ml</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/AHAVA-Hyalurons%C3%A4ure-Serum-Feuchtigkeitsgehalt-gl%C3%A4ttet-Anti-Aging-Vorteile/dp/B011UC6U46</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>10134664</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>矮款门挡 Lock' Dis</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Low Door Stopper Lock' Dis</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Niedriges Türstopperschloss Dis</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>10147490</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clearly Organic </t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Clearly Organic Ring Fit Adventure (Switch)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Clearly Organic Ring Fit Adventure (Switch)</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Clearly Organic Ring Fit Adventure (Switch)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Clearly Organic Ring Fit Adventure (Switch)</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>10106457</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>切尔诺贝利特（PS5）</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Petsafe Chernobylite (PS5)</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Petsafe Tchernobylite (PS5)</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Petsafe Chernobylite (PS5)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Petsafe Chernobylite (PS5)</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>10120736</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>晶星 兰州拉面 2kg</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Jingxing Lanzhou Ramen Noodles 2kg</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Jingxing Lanzhou Ramen Nudeln 2kg</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>10109757</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>双层烧烤格栅 30x40厘米 镀铬</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>DOUBLE BBQ GRID 30X40 CHROMIUM</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>GRILLE DE BARBECUE DOUBLE 30X40 CHROME</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>DOPPELTER GRILLGITTER 30X40 CHROM</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>DOUBLE BBQ GRID 30X40 CHROMIUM</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>10109737</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>简约刷题小白笔按压水笔 ST头学生考试办公按动中性笔12支 混色装</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Simple White Pen Set 12 Pack</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Lot de 12 stylos blancs simples</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Simple White Pen Set 12er-Pack</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Simple White Pen Set 12 Pack</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>10149906</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>谷香 泰国直采 谷香 茉莉香大米 5kg</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Cereal Fragrance Thailand directly picked Jasmine rice 5kg</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Cereal Fragrance Riz jasmin cueilli directement en Thaïlande 5 kg</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Cereal Fragrance Direkt aus Thailand geernteter Jasminreis 5kg</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Cereal Fragrance Thailand direct geplukte jasmijnrijst 5kg</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>10132717</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>佳能原装墨水CLI-551XL C，超大容量，青色，可回收包装</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Canon Original Ink CLI-551XL C, Size XL, Cyan, Recyclable Packaging</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Canon Originaltinte CLI-551XL C, Größe XL, Cyan, Recyclebare Verpackung</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/Canon-CLI-551C-Tintenpatrone-Cyan-XL/dp/B009DL0CKU</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>10141792</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>鑫阳 侏罗纪世界：进化2（PS5）</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Xin Yang Jurassic World: Evolution 2 (PS5)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Xin Yang Jurassic World: Evolution 2 (PS5)</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Xin Yang Jurassic World: Evolution 2 (PS5)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Xin Yang Jurassic World: Evolution 2 (PS5)</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>10109686</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>剪刀套装 - 3件</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Scissors Set - 3pcs</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Ensemble de ciseaux - 3 pièces</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Scherenset - 3-teilig</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Schaarset - 3 Stuks</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/Meister-Scheren-Set-3-teilig-Edelstahl-Klingen-Soft-Grip-Griffe/dp/B01BV9FP3A</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>10384048</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>希捷SkyHawk ST6000VX009 6TB 内置硬盘，支持最多64路摄像头视频录制，3.5英寸，64MB缓存，SATA 6GB/s，银色，FFP，包含3年数据救援服务。</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Seagate SkyHawk ST6000VX009 6TB Internal Hard Drive HDD, Video Recording up to 64 Cameras, 3.5 Inch, 64 MB Cache, SATA 6GB/s, Silver, FFP, incl. 3 Year Rescue Service</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Seagate SkyHawk ST6000VX009 6TB interne Festplatte HDD, Videoaufzeichnung bis zu 64 Kameras, 3,5 Zoll, 64 MB Cache, SATA 6GB/s, Silber, FFP, inkl. 3 Jahre Rescue Service</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/Seagate-SkyHawk-interne-Festplatte-Videoaufnahme-Modellnr/dp/B0BLT2NKD9</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>10109651</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>厨房纸 10件装</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Kitchen towels 10pc</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Torchons de cuisine 10 pièces</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Küchentücher 10 Stück</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kitchen towels 10pc</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>https://www.amazon.de/ZOLLNER-Geschirrt%C3%BCcher-Baumwolle-50x70-kariert/dp/B09H7JR25Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>10109649</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>贝贝图J浆果70克</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Bebeto J Berries 70g</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Beetou J, baies 70 g</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Bebeto J Beeren 70g</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bebeto J Beeren 70g</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>not found</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>10109619</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>餐盘 29.5x44厘米</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Serving tray 29,5x44cm</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Plateau de service 29,5x44cm</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Serviertablett 29,5x44cm</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Serving tray 29,5x44cm</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>amazon.de</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>not found</t>
         </is>
       </c>
     </row>
